--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb2.git\総合演習資料\4.テスト仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -363,6 +363,19 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,39 +628,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,30 +692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -985,17 +998,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1004,37 +1017,43 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="27"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11">
+        <v>43034</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1064,7 +1083,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1075,7 +1094,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1086,7 +1105,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1097,7 +1116,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1108,7 +1127,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1119,7 +1138,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1130,7 +1149,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,7 +1160,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1152,7 +1171,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1163,7 +1182,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1174,7 +1193,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1185,7 +1204,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1196,7 +1215,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1207,7 +1226,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,7 +1237,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1229,7 +1248,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1240,7 +1259,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,7 +1270,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1262,7 +1281,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1292,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1284,7 +1303,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1295,7 +1314,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,7 +1325,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,7 +1336,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1328,7 +1347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,7 +1358,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="29"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,7 +1369,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1361,7 +1380,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,7 +1391,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="29"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1383,7 +1402,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1394,7 +1413,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,7 +1424,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1416,7 +1435,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,7 +1446,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="29"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,7 +1457,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,7 +1468,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="29"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,7 +1479,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="29"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1471,7 +1490,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="29"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1482,7 +1501,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="29"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1493,7 +1512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="29"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,7 +1523,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="29"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1515,7 +1534,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="29"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,7 +1545,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="29"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1537,7 +1556,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="29"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1548,7 +1567,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="29"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,7 +1578,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="29"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1570,7 +1589,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="29"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1581,7 +1600,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="29"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1611,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="3"/>
     </row>
   </sheetData>
@@ -1613,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1635,17 +1654,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1654,32 +1673,32 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="27" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="28">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11">
         <v>43028</v>
       </c>
     </row>
@@ -1687,10 +1706,10 @@
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1732,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="29">
+      <c r="I6" s="12">
         <v>43030</v>
       </c>
       <c r="J6" s="3"/>
@@ -1757,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1780,7 +1799,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1803,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1826,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1883,7 +1902,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1894,7 +1913,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,7 +1924,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1916,7 +1935,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1927,7 +1946,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,7 +1957,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1949,7 +1968,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1960,7 +1979,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1971,7 +1990,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1982,7 +2001,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1993,7 +2012,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2004,7 +2023,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2015,7 +2034,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2026,7 +2045,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2037,7 +2056,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2048,7 +2067,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,7 +2078,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2070,7 +2089,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2081,7 +2100,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="30"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,7 +2111,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2103,7 +2122,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="30"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,7 +2133,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2125,7 +2144,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2136,7 +2155,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2147,7 +2166,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2158,7 +2177,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2169,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2180,7 +2199,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2191,7 +2210,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2202,7 +2221,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="30"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2213,7 +2232,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2224,7 +2243,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2235,7 +2254,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2246,7 +2265,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2257,7 +2276,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2268,7 +2287,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2279,7 +2298,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2290,7 +2309,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2301,7 +2320,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,7 +2331,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="30"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,7 +2342,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,7 +2353,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="30"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="3"/>
     </row>
   </sheetData>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705"/>
   </bookViews>
   <sheets>
-    <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
+    <sheet name="結合テスト仕様書" sheetId="3" r:id="rId1"/>
     <sheet name="記入例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -375,6 +375,804 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（addメソッド）</t>
+  </si>
+  <si>
+    <t>名前未入力対応</t>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID未入力対応</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDだけ未入力で登録ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「社員IDを入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID重複対応</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の社員IDを入力し、登録ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「社員IDが重複しています」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDに半角数字以外の文字を入力し、登録ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「社員IDは半角数字で入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード未入力対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードだけ未入力で登録ボタンをクリック</t>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「パスワードを入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力チェック</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに半角英数字以外の文字を入力し、登録ボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前だけ未入力で登録ボタンをクリック</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移せず、メッセージエリアに「名前を入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（addメソッド）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目すべてに正しく入力し、新規登録画面の登録ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面への遷移</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクナイヨウカクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクナイヨウカクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面の前画面への遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、登録ボタンをクリック</t>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 "&lt;&gt;',.\&amp;%$?/()@# 』など特殊文字のデータを入力し、登録ボタンをクリック</t>
+    <rPh sb="25" eb="27">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース格納</t>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerUser、
+EmployeeSystemLogic（addメソッド）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmRegisterUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面の前画面への遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面にデータベースに存在しない社員IDが表示されている状態で、登録ボタンをクリック</t>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員情報管理画面に遷移し、メッセージエリアに「登録できました」と表示される
+・社員情報管理画面の一覧の1番上に登録した社員情報が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグのデフォルト対応</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署を「本社システム部」「本社人事部」以外で入力し、新規登録を正常に完了する</t>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した社員の詳細画面を開き、管理者権限がなしになっている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグの特別対応</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署を「本社システム部」または「本社人事部」で入力し、新規登録を正常に完了する</t>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した社員の詳細画面を開き、管理者権限がありになっている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面遷移後に、別の画面で同じ社員IDの新規登録を正常完了させてから、登録ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースエラー対応</t>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースが正常に起動していない状態で、登録内容確認画面の登録ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規登録画面に遷移し、メッセージエリアに「社員IDが重複しています」と表示される
+・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規登録画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
+・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -976,8 +1774,924 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>38</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>42</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>46</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
+        <v>47</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J54"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1023,662 +2737,6 @@
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="11">
-        <v>43034</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="I3:I4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J54"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
-    <col min="11" max="14" width="2.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="24"/>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -379,9 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（addメソッド）</t>
-  </si>
-  <si>
     <t>名前未入力対応</t>
   </si>
   <si>
@@ -673,10 +670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（addメソッド）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力項目すべてに正しく入力し、新規登録画面の登録ボタンをクリック</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -792,10 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベース格納</t>
     <rPh sb="6" eb="8">
       <t>カクノウ</t>
@@ -804,15 +793,6 @@
   </si>
   <si>
     <t>registerUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registerUser、
-EmployeeSystemLogic（addメソッド）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>confirmRegisterUser</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1174,6 +1154,50 @@
     <rPh sb="42" eb="44">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID修正不可</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmRegisterUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerUser、
+EmployeeSystemLogic（add1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmRegisterUser
+EmployeeSystemLogic（add2メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add2メソッド）
+EmployeeSystemDAO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1775,7 +1799,7 @@
   <dimension ref="B1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1880,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1903,16 +1927,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1926,13 +1950,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>33</v>
@@ -1949,13 +1973,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>35</v>
@@ -1972,16 +1996,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>20</v>
@@ -1994,17 +2018,17 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -2018,16 +2042,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>20</v>
@@ -2041,16 +2065,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
@@ -2064,16 +2088,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
@@ -2087,16 +2111,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
@@ -2110,16 +2134,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
@@ -2132,17 +2156,17 @@
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
+      <c r="C17" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -2155,17 +2179,17 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
+      <c r="C18" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
@@ -2178,17 +2202,17 @@
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
+      <c r="C19" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
@@ -2201,17 +2225,17 @@
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
+      <c r="C20" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>20</v>
@@ -2224,17 +2248,17 @@
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -2248,7 +2272,9 @@
         <v>17</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -781,13 +781,6 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース格納</t>
-    <rPh sb="6" eb="8">
-      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1198,6 +1191,904 @@
   <si>
     <t>EmployeeSystemLogic（add2メソッド）
 EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDを修正できない</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般社員でログインし、修正画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外修正不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外修正できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の情報（管理者）</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の情報（一般社員）</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者でログインし、修正画面を表示</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード以外既存の情報が入力されている</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外既存の情報が入力されている</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面の前画面への遷移（社員情報管理画面）</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>シャインジョウホウカンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面の前画面への遷移（詳細画面）</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面への遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「名前を入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面の前画面への遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser、
+EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（update2メソッド）
+EmployeeSystemDAO</t>
+  </si>
+  <si>
+    <t>入力項目すべてに正しく入力し、修正画面の修正ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、修正ボタンをクリック</t>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 "&lt;&gt;',.\&amp;%$?/()@# 』など特殊文字のデータを入力し、修正ボタンをクリック</t>
+    <rPh sb="25" eb="27">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前だけ未入力で修正ボタンをクリック</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面にデータベースに存在しない社員IDが表示されている状態で、修正ボタンをクリック</t>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースが正常に起動していない状態で、修正内容確認画面の修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード未入力対応</t>
+  </si>
+  <si>
+    <t>新パスワードだけ未入力で修正ボタンをクリック</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「新パスワードを入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード入力チェック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワードに半角英数字以外の文字を入力し、修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「新パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワード未入力対応</t>
+  </si>
+  <si>
+    <t>旧パスワードだけ未入力で修正ボタンをクリック</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「旧パスワードを入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワード入力チェック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードに半角英数字以外の文字を入力し、修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「旧パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmUpdateUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmUpdateUser
+EmployeeSystemLogic（update2メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員情報管理画面に遷移し、メッセージエリアに「修正できました」と表示される
+・社員情報管理画面の一覧に修正した社員情報が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・修正画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
+・修正画面で入力した社員情報が反映されていない</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmDeleteUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面の前画面への遷移（社員情報管理画面）</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>シャインジョウホウカンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面の前画面への遷移（詳細画面）</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧の削除ボタンをクリックし、遷移した削除内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面の削除ボタンをクリックし、遷移した削除内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmDeleteUser
+EmployeeSystemLogic（deleteメソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面にデータベースに存在する社員IDが表示されている状態で、削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員情報管理画面に遷移し、メッセージエリアに「削除できました」と表示される
+・社員情報管理画面の一覧に削除した社員情報が表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しない社員ID対応</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（deleteメソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面遷移後に、別の画面で同じ社員IDの削除を正常完了させてから、削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移せず、メッセージエリアに「社員IDが存在しません」と表示される</t>
+    <rPh sb="29" eb="31">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースが正常に起動していない状態で、削除内容確認画面の削除ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移せず、メッセージエリアに「データベースでエラーが発生しています」と表示される</t>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1798,15 +2689,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
@@ -1904,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>41</v>
@@ -1927,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>61</v>
@@ -1950,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -1973,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
@@ -1996,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>42</v>
@@ -2019,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>45</v>
@@ -2042,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>48</v>
@@ -2065,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>51</v>
@@ -2088,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>54</v>
@@ -2111,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>40</v>
@@ -2134,16 +3023,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
@@ -2157,16 +3046,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -2180,16 +3069,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
@@ -2203,16 +3092,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
@@ -2226,16 +3115,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>20</v>
@@ -2249,16 +3138,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -2271,286 +3160,504 @@
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="12"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="12"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="12"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="2"/>
+      <c r="C37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="2"/>
+      <c r="C38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="2"/>
+      <c r="C41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="2"/>
+      <c r="C43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="12"/>
       <c r="J43" s="3"/>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -379,9 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（addメソッド）</t>
-  </si>
-  <si>
     <t>名前未入力対応</t>
   </si>
   <si>
@@ -673,10 +670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（addメソッド）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力項目すべてに正しく入力し、新規登録画面の登録ボタンをクリック</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -792,27 +785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース格納</t>
-    <rPh sb="6" eb="8">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registerUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registerUser、
-EmployeeSystemLogic（addメソッド）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>confirmRegisterUser</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1172,6 +1145,948 @@
       <t>センイ</t>
     </rPh>
     <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID修正不可</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmRegisterUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerUser、
+EmployeeSystemLogic（add1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmRegisterUser
+EmployeeSystemLogic（add2メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add2メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDを修正できない</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般社員でログインし、修正画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外修正不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外修正できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の情報（管理者）</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の情報（一般社員）</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者でログインし、修正画面を表示</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード以外既存の情報が入力されている</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードと新パスワード以外既存の情報が入力されている</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面の前画面への遷移（社員情報管理画面）</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>シャインジョウホウカンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面の前画面への遷移（詳細画面）</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面への遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「名前を入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面の前画面への遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser、
+EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（update2メソッド）
+EmployeeSystemDAO</t>
+  </si>
+  <si>
+    <t>入力項目すべてに正しく入力し、修正画面の修正ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、修正ボタンをクリック</t>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前に『 "&lt;&gt;',.\&amp;%$?/()@# 』など特殊文字のデータを入力し、修正ボタンをクリック</t>
+    <rPh sb="25" eb="27">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前だけ未入力で修正ボタンをクリック</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面にデータベースに存在しない社員IDが表示されている状態で、修正ボタンをクリック</t>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースが正常に起動していない状態で、修正内容確認画面の修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード未入力対応</t>
+  </si>
+  <si>
+    <t>新パスワードだけ未入力で修正ボタンをクリック</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「新パスワードを入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード入力チェック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワードに半角英数字以外の文字を入力し、修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「新パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワード未入力対応</t>
+  </si>
+  <si>
+    <t>旧パスワードだけ未入力で修正ボタンをクリック</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「旧パスワードを入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワード入力チェック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧パスワードに半角英数字以外の文字を入力し、修正ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移せず、メッセージエリアに「旧パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmUpdateUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmUpdateUser
+EmployeeSystemLogic（update2メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員情報管理画面に遷移し、メッセージエリアに「修正できました」と表示される
+・社員情報管理画面の一覧に修正した社員情報が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・修正画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
+・修正画面で入力した社員情報が反映されていない</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmDeleteUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面の前画面への遷移（社員情報管理画面）</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>シャインジョウホウカンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面の前画面への遷移（詳細画面）</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧の削除ボタンをクリックし、遷移した削除内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面の削除ボタンをクリックし、遷移した削除内容確認画面の戻るボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmDeleteUser
+EmployeeSystemLogic（deleteメソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面にデータベースに存在する社員IDが表示されている状態で、削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員情報管理画面に遷移し、メッセージエリアに「削除できました」と表示される
+・社員情報管理画面の一覧に削除した社員情報が表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しない社員ID対応</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（deleteメソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面遷移後に、別の画面で同じ社員IDの削除を正常完了させてから、削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移せず、メッセージエリアに「社員IDが存在しません」と表示される</t>
+    <rPh sb="29" eb="31">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースが正常に起動していない状態で、削除内容確認画面の削除ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移せず、メッセージエリアに「データベースでエラーが発生しています」と表示される</t>
+    <rPh sb="44" eb="46">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1774,15 +2689,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
@@ -1880,16 +2793,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1903,16 +2816,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1926,13 +2839,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>33</v>
@@ -1949,13 +2862,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>35</v>
@@ -1972,16 +2885,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>20</v>
@@ -1994,17 +2907,17 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -2018,16 +2931,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>20</v>
@@ -2041,16 +2954,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
@@ -2064,16 +2977,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
@@ -2087,16 +3000,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
@@ -2110,16 +3023,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
@@ -2132,17 +3045,17 @@
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
+      <c r="C17" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -2155,17 +3068,17 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
+      <c r="C18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
@@ -2178,17 +3091,17 @@
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
+      <c r="C19" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
@@ -2201,17 +3114,17 @@
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
+      <c r="C20" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>20</v>
@@ -2224,17 +3137,17 @@
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
+      <c r="C21" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -2247,284 +3160,504 @@
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="12"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="12"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="12"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="2"/>
+      <c r="C37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="2"/>
+      <c r="C38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="2"/>
+      <c r="C41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="2"/>
+      <c r="C43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="12"/>
       <c r="J43" s="3"/>

--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_香川.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="196">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -1545,33 +1545,6 @@
     <t>EmployeeSystemLogic（add1メソッド）</t>
   </si>
   <si>
-    <t>サニタイジング対応</t>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、登録ボタンをクリック</t>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザでタグが無効かされてそのまま表示されている</t>
-    <rPh sb="8" eb="10">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特殊文字対応</t>
     <rPh sb="0" eb="2">
       <t>トクシュ</t>
@@ -2100,168 +2073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者フラグの特別対応</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署を「本社システム部」または「本社人事部」で入力し、新規登録を正常に完了する</t>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録した社員の詳細画面を開き、管理者権限がありになっている</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録内容確認画面遷移後に、別の画面で同じ社員IDの新規登録を正常完了させてから、登録ボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・新規登録画面に遷移し、メッセージエリアに「社員IDが重複しています」と表示される
-・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、登録内容確認画面の登録ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・新規登録画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
-・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>updateUser</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2299,33 +2110,6 @@
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外修正不可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一般社員でログインし、修正画面を表示</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外修正できない</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2377,44 +2161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存の情報（一般社員）</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外既存の情報が入力されている</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正画面の前画面への遷移（社員情報管理画面）</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -2465,71 +2211,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正画面の前画面への遷移（詳細画面）</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
+    <t>詳細画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser、
+EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>修正内容確認画面への遷移</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateUser、
-EmployeeSystemLogic（update1メソッド）</t>
-  </si>
-  <si>
-    <t>修正内容確認画面への遷移</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2563,13 +2268,6 @@
   </si>
   <si>
     <t>EmployeeSystemLogic（update1メソッド）</t>
-  </si>
-  <si>
-    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、修正ボタンをクリック</t>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前に『 "&lt;&gt;',.\&amp;%$?/()@# 』など特殊文字のデータを入力し、修正ボタンをクリック</t>
@@ -2850,46 +2548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（update2メソッド）
-EmployeeSystemDAO</t>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、修正内容確認画面の修正ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・修正画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
-・修正画面で入力した社員情報が反映されていない</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirmDeleteUser</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3072,105 +2730,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（deleteメソッド）
-EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>存在しない社員ID対応</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除内容確認画面遷移後に、別の画面で同じ社員IDの削除を正常完了させてから、削除ボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報管理画面に遷移せず、メッセージエリアに「社員IDが存在しません」と表示される</t>
-    <rPh sb="29" eb="31">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、削除内容確認画面の削除ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報管理画面に遷移せず、メッセージエリアに「データベースでエラーが発生しています」と表示される</t>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3419,7 +2979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3547,15 +3107,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5333,7 +4884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5454,7 +5005,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="3"/>
@@ -5479,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="3"/>
@@ -5504,7 +5055,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="3"/>
@@ -5526,10 +5077,10 @@
         <v>119</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="3"/>
@@ -5538,23 +5089,23 @@
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>113</v>
+      <c r="C10" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="3"/>
@@ -5563,8 +5114,8 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>123</v>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>124</v>
@@ -5578,8 +5129,8 @@
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>221</v>
+      <c r="H11" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="3"/>
@@ -5603,10 +5154,10 @@
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I12" s="13"/>
+      <c r="H12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.15">
@@ -5629,7 +5180,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="3"/>
@@ -5639,297 +5190,297 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>140</v>
+      <c r="C16" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>148</v>
+      <c r="C18" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B19" s="43">
+    <row r="19" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="E19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="2:10" ht="48" x14ac:dyDescent="0.15">
-      <c r="B20" s="43">
+      <c r="H19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="44" t="s">
+      <c r="C20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B21" s="43">
+      <c r="E20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="3"/>
@@ -5939,22 +5490,22 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="3"/>
@@ -5964,22 +5515,22 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="3"/>
@@ -5988,48 +5539,48 @@
       <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>176</v>
+      <c r="C28" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>180</v>
+      <c r="C29" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="3"/>
@@ -6039,22 +5590,22 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
@@ -6064,468 +5615,193 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>180</v>
+      <c r="C32" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B38" s="43">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="45"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B42" s="43">
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="C42" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B43" s="43">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3">
-        <v>39</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3">
-        <v>41</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="3">
-        <v>43</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="3">
-        <v>44</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="3">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="3">
-        <v>47</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="3">
-        <v>48</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="3">
-        <v>49</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
